--- a/group_classification.xlsx
+++ b/group_classification.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="258">
   <si>
     <t>Paper Title</t>
   </si>
@@ -125,7 +125,7 @@
 2. large
 3. noisy
 4. accurate
-5. None of the Above
+5. None of Above
 )
 </t>
     </r>
@@ -438,7 +438,7 @@
     <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8718221</t>
   </si>
   <si>
-    <t>5 (just a proposal, does not have training data)</t>
+    <t>5 (just a proposal which does not have training data)</t>
   </si>
   <si>
     <t>9 (fitness value)</t>
@@ -615,7 +615,7 @@
     <t>https://dl.acm.org/doi/10.1145/3293882.3330574</t>
   </si>
   <si>
-    <t>7 (DeepFL relies on various fault prediction parameters, and each of them target different tests)</t>
+    <t>7 (DeepFL relies on various fault prediction parameters and each of them target different tests)</t>
   </si>
   <si>
     <t>9 (didn't specify)</t>
@@ -705,7 +705,7 @@
     <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8991668</t>
   </si>
   <si>
-    <t>8 (random forrest, ensemble learning)</t>
+    <t>8 (random forrest &amp; ensemble learning)</t>
   </si>
   <si>
     <t>12 (fault prediction &amp; localization)</t>
@@ -829,6 +829,9 @@
     <t>7 (APR is not related to any specific testcase)</t>
   </si>
   <si>
+    <t>12 (automatic program repair)</t>
+  </si>
+  <si>
     <t>A hybrid evolutionary system for automatic software repair</t>
   </si>
   <si>
@@ -847,6 +850,9 @@
     <t>1,4,5,8 (random forest)</t>
   </si>
   <si>
+    <t>3,1,5,4</t>
+  </si>
+  <si>
     <t>XCS as a reinforcement learning approach to automatic test case prioritization</t>
   </si>
   <si>
@@ -859,6 +865,9 @@
     <t>3  (reinforcement learning)</t>
   </si>
   <si>
+    <t>9 (the paper didn't specify)</t>
+  </si>
+  <si>
     <t>Effective and efficient API misuse detection via exception propagation and search-based testing</t>
   </si>
   <si>
@@ -871,10 +880,6 @@
     <t>https://dl.acm.org/doi/10.1109/ASE.2019.00104</t>
   </si>
   <si>
-    <t>9 (learn from how human users navigate
-through an app)</t>
-  </si>
-  <si>
     <t>Scaffle: bug localization on millions of files</t>
   </si>
   <si>
@@ -894,13 +899,16 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/10.1145/3387940.3391499</t>
+  </si>
+  <si>
+    <t>8 (genetic algorithnm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -915,9 +923,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -926,7 +931,6 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -960,6 +964,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -969,12 +974,12 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -990,6 +995,7 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1115,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1152,7 +1158,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1176,31 +1182,28 @@
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1212,10 +1215,10 @@
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1224,15 +1227,18 @@
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1257,56 +1263,41 @@
     <xf borderId="1" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="13" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1525,14 +1516,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="103.86"/>
-    <col customWidth="1" min="2" max="2" width="61.86"/>
-    <col customWidth="1" min="3" max="3" width="52.14"/>
-    <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="45.43"/>
-    <col customWidth="1" min="6" max="6" width="42.57"/>
-    <col customWidth="1" min="7" max="7" width="49.43"/>
-    <col customWidth="1" min="8" max="8" width="37.14"/>
+    <col customWidth="1" min="1" max="1" width="13.71"/>
+    <col customWidth="1" min="2" max="2" width="50.14"/>
+    <col customWidth="1" min="3" max="3" width="28.29"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="5" max="5" width="32.29"/>
+    <col customWidth="1" min="6" max="6" width="22.14"/>
+    <col customWidth="1" min="7" max="7" width="34.0"/>
+    <col customWidth="1" min="8" max="8" width="29.14"/>
     <col customWidth="1" min="9" max="9" width="24.29"/>
     <col customWidth="1" min="10" max="10" width="27.57"/>
     <col customWidth="1" min="11" max="11" width="39.14"/>
@@ -1618,7 +1609,7 @@
       <c r="G4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="13" t="s">
@@ -1665,7 +1656,7 @@
       <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="1">
@@ -1674,7 +1665,7 @@
       <c r="J5" s="1">
         <v>1.0</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="1">
@@ -1694,7 +1685,7 @@
       <c r="A6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="1">
@@ -1712,7 +1703,7 @@
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="1">
@@ -1721,7 +1712,7 @@
       <c r="J6" s="1">
         <v>1.0</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="1">
@@ -1741,7 +1732,7 @@
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1">
@@ -1759,7 +1750,7 @@
       <c r="G7" s="1">
         <v>7.0</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="1">
@@ -1768,7 +1759,7 @@
       <c r="J7" s="1">
         <v>1.0</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="1">
@@ -1788,7 +1779,7 @@
       <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1">
@@ -1803,10 +1794,10 @@
       <c r="F8" s="1">
         <v>2.0</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="1">
@@ -1818,7 +1809,7 @@
       <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1827,7 +1818,7 @@
       <c r="N8" s="1">
         <v>2.0</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1835,7 +1826,7 @@
       <c r="A9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1">
@@ -1853,7 +1844,7 @@
       <c r="G9" s="1">
         <v>5.0</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="1">
@@ -1882,7 +1873,7 @@
       <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="1">
@@ -1929,7 +1920,7 @@
       <c r="A11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="1">
@@ -1956,7 +1947,7 @@
       <c r="J11" s="1">
         <v>2.0</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L11" s="1">
@@ -1976,13 +1967,13 @@
       <c r="A12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="C12" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="D12" s="29">
         <v>7.0</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2023,13 +2014,13 @@
       <c r="A13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="C13" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="29">
         <v>3.0</v>
       </c>
       <c r="E13" s="1">
@@ -2070,13 +2061,13 @@
       <c r="A14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="C14" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="30">
         <v>9.0</v>
       </c>
       <c r="E14" s="1">
@@ -2088,13 +2079,13 @@
       <c r="G14" s="1">
         <v>5.0</v>
       </c>
-      <c r="H14" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J14" s="31">
+      <c r="H14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="30">
         <v>1.0</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2117,13 +2108,13 @@
       <c r="A15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="C15" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="29">
         <v>9.0</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2164,13 +2155,13 @@
       <c r="A16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="C16" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="29">
         <v>4.0</v>
       </c>
       <c r="E16" s="1">
@@ -2185,10 +2176,10 @@
       <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J16" s="30">
+      <c r="I16" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="29">
         <v>1.0</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2211,7 +2202,7 @@
       <c r="A17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="1">
@@ -2229,7 +2220,7 @@
       <c r="G17" s="1">
         <v>3.0</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="1">
@@ -2238,7 +2229,7 @@
       <c r="J17" s="1">
         <v>1.0</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2258,16 +2249,16 @@
       <c r="A18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="1">
         <v>3.0</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="1">
@@ -2276,7 +2267,7 @@
       <c r="G18" s="1">
         <v>5.0</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="1">
@@ -2285,7 +2276,7 @@
       <c r="J18" s="1">
         <v>1.0</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2305,7 +2296,7 @@
       <c r="A19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="1">
@@ -2323,7 +2314,7 @@
       <c r="G19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="1">
@@ -2332,7 +2323,7 @@
       <c r="J19" s="1">
         <v>1.0</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="1">
@@ -2352,13 +2343,13 @@
       <c r="A20" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2370,7 +2361,7 @@
       <c r="G20" s="1">
         <v>1.0</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="1">
@@ -2379,7 +2370,7 @@
       <c r="J20" s="1">
         <v>1.0</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="1">
@@ -2399,7 +2390,7 @@
       <c r="A21" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="1">
@@ -2417,7 +2408,7 @@
       <c r="G21" s="1">
         <v>3.0</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="1">
@@ -2426,7 +2417,7 @@
       <c r="J21" s="1">
         <v>1.0</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="1">
@@ -2446,7 +2437,7 @@
       <c r="A22" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="1">
@@ -2464,7 +2455,7 @@
       <c r="G22" s="1">
         <v>7.0</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="1">
@@ -2473,7 +2464,7 @@
       <c r="J22" s="1">
         <v>1.0</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="1">
@@ -2493,7 +2484,7 @@
       <c r="A23" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="1">
@@ -2511,7 +2502,7 @@
       <c r="G23" s="1">
         <v>7.0</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="36" t="s">
         <v>103</v>
       </c>
       <c r="I23" s="1">
@@ -2520,7 +2511,7 @@
       <c r="J23" s="1">
         <v>1.0</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2540,7 +2531,7 @@
       <c r="A24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="1">
@@ -2558,7 +2549,7 @@
       <c r="G24" s="1">
         <v>7.0</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="1">
@@ -2567,7 +2558,7 @@
       <c r="J24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -2587,7 +2578,7 @@
       <c r="A25" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C25" s="1">
@@ -2605,16 +2596,16 @@
       <c r="G25" s="1">
         <v>6.0</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="1">
         <v>1.0</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -2623,7 +2614,7 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O25" s="1">
@@ -2652,7 +2643,7 @@
       <c r="G26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="1">
@@ -2661,7 +2652,7 @@
       <c r="J26" s="1">
         <v>1.0</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -2699,7 +2690,7 @@
       <c r="G27" s="1">
         <v>7.0</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="1">
@@ -2708,7 +2699,7 @@
       <c r="J27" s="1">
         <v>1.0</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -2717,10 +2708,10 @@
       <c r="M27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N27" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="O27" s="34" t="s">
+      <c r="N27" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O27" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2746,7 +2737,7 @@
       <c r="G28" s="1">
         <v>2.0</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="1">
@@ -2755,7 +2746,7 @@
       <c r="J28" s="1">
         <v>1.0</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -2781,7 +2772,7 @@
       <c r="C29" s="1">
         <v>3.0</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2793,7 +2784,7 @@
       <c r="G29" s="1">
         <v>7.0</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I29" s="1">
@@ -2802,7 +2793,7 @@
       <c r="J29" s="1">
         <v>1.0</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="1">
@@ -2825,31 +2816,31 @@
       <c r="B30" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="31">
+      <c r="C30" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="30">
         <v>3.0</v>
       </c>
       <c r="E30" s="39">
         <v>2.0</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <v>1.0</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J30" s="35" t="s">
+      <c r="H30" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="34" t="s">
         <v>42</v>
       </c>
       <c r="L30" s="39">
@@ -2884,10 +2875,10 @@
       <c r="F31" s="1">
         <v>2.0</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="1">
@@ -2896,7 +2887,7 @@
       <c r="J31" s="1">
         <v>1.0</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="1">
@@ -2908,7 +2899,7 @@
       <c r="N31" s="1">
         <v>2.0</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="O31" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2949,7 +2940,7 @@
       <c r="L32" s="43">
         <v>4.0</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="1" t="s">
         <v>139</v>
       </c>
       <c r="N32" s="1">
@@ -3151,37 +3142,37 @@
       <c r="A37" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D37" s="31">
+      <c r="C37" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D37" s="30">
         <v>7.0</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="G37" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J37" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K37" s="32" t="s">
+      <c r="F37" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G37" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K37" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="L37" s="47" t="s">
+      <c r="L37" s="31" t="s">
         <v>154</v>
       </c>
       <c r="M37" s="44" t="s">
@@ -3201,31 +3192,31 @@
       <c r="B38" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="31">
+      <c r="C38" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="30">
         <v>3.0</v>
       </c>
       <c r="E38" s="39">
         <v>2.0</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="31">
         <v>2.0</v>
       </c>
       <c r="G38" s="39">
         <v>7.0</v>
       </c>
-      <c r="H38" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="31">
+      <c r="H38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="30">
         <v>1.0</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K38" s="34" t="s">
         <v>42</v>
       </c>
       <c r="L38" s="39" t="s">
@@ -3248,31 +3239,31 @@
       <c r="B39" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="31">
+      <c r="C39" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D39" s="30">
         <v>9.0</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="G39" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J39" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K39" s="35" t="s">
+      <c r="F39" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K39" s="34" t="s">
         <v>42</v>
       </c>
       <c r="L39" s="39" t="s">
@@ -3292,37 +3283,37 @@
       <c r="A40" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D40" s="31">
+      <c r="C40" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D40" s="30">
         <v>7.0</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="47" t="s">
         <v>162</v>
       </c>
       <c r="F40" s="39">
         <v>2.0</v>
       </c>
-      <c r="G40" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J40" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L40" s="47" t="s">
+      <c r="G40" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J40" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="31" t="s">
         <v>163</v>
       </c>
       <c r="M40" s="44" t="s">
@@ -3339,37 +3330,37 @@
       <c r="A41" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D41" s="32" t="s">
+      <c r="C41" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D41" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="F41" s="35" t="s">
+      <c r="E41" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <v>7.0</v>
       </c>
-      <c r="H41" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J41" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K41" s="32" t="s">
+      <c r="H41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J41" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K41" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="30">
         <v>6.0</v>
       </c>
       <c r="M41" s="44" t="s">
@@ -3389,34 +3380,34 @@
       <c r="B42" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="F42" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="G42" s="31">
+      <c r="E42" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="30">
         <v>5.0</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="J42" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K42" s="32" t="s">
+      <c r="I42" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="J42" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="30">
         <v>4.0</v>
       </c>
       <c r="M42" s="44">
@@ -3433,34 +3424,34 @@
       <c r="A43" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>3.0</v>
       </c>
       <c r="D43" s="39">
         <v>7.0</v>
       </c>
-      <c r="E43" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="F43" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="G43" s="31">
+      <c r="E43" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="F43" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="30">
         <v>5.0</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I43" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="J43" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K43" s="32" t="s">
+      <c r="I43" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="J43" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K43" s="31" t="s">
         <v>85</v>
       </c>
       <c r="L43" s="39" t="s">
@@ -3480,46 +3471,46 @@
       <c r="A44" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="E44" s="50" t="s">
+      <c r="C44" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G44" s="32" t="s">
+      <c r="F44" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G44" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J44" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K44" s="32" t="s">
+      <c r="H44" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K44" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="L44" s="32" t="s">
+      <c r="L44" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="51">
+      <c r="M44" s="44">
         <v>6.0</v>
       </c>
-      <c r="N44" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="O44" s="51">
+      <c r="N44" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="O44" s="44">
         <v>4.0</v>
       </c>
     </row>
@@ -3527,37 +3518,37 @@
       <c r="A45" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D45" s="49">
+      <c r="C45" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D45" s="30">
         <v>9.0</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G45" s="49">
+      <c r="F45" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G45" s="30">
         <v>5.0</v>
       </c>
-      <c r="H45" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J45" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K45" s="32" t="s">
+      <c r="H45" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K45" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="39" t="s">
         <v>61</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -3574,37 +3565,37 @@
       <c r="A46" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="F46" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J46" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K46" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="50" t="s">
+      <c r="F46" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="34" t="s">
         <v>184</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3624,31 +3615,31 @@
       <c r="B47" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="E47" s="49">
+      <c r="C47" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="30">
         <v>6.0</v>
       </c>
-      <c r="F47" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="G47" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H47" s="50" t="s">
+      <c r="F47" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J47" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K47" s="50" t="s">
+      <c r="I47" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K47" s="34" t="s">
         <v>85</v>
       </c>
       <c r="L47" s="43">
@@ -3668,37 +3659,37 @@
       <c r="A48" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="51">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="49">
+      <c r="C48" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="30">
         <v>4.0</v>
       </c>
-      <c r="E48" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="F48" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="G48" s="49">
+      <c r="E48" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="30">
         <v>6.0</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="J48" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="K48" s="52" t="s">
+      <c r="I48" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="J48" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="K48" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="49">
+      <c r="L48" s="30">
         <v>4.0</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -3718,31 +3709,31 @@
       <c r="B49" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D49" s="32" t="s">
+      <c r="C49" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D49" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="30">
         <v>4.0</v>
       </c>
-      <c r="F49" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G49" s="50" t="s">
+      <c r="F49" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G49" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="I49" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="J49" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="K49" s="50" t="s">
+      <c r="H49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="J49" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="K49" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="43">
@@ -3765,34 +3756,34 @@
       <c r="B50" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="51">
-        <v>3.0</v>
-      </c>
-      <c r="D50" s="32">
+      <c r="C50" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="D50" s="31">
         <v>9.0</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="G50" s="32" t="s">
+      <c r="F50" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J50" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="K50" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L50" s="32" t="s">
+      <c r="I50" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J50" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="K50" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="31" t="s">
         <v>197</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -3801,7 +3792,7 @@
       <c r="N50" s="1">
         <v>2.0</v>
       </c>
-      <c r="O50" s="22" t="s">
+      <c r="O50" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3812,40 +3803,40 @@
       <c r="B51" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="E51" s="32" t="s">
+      <c r="C51" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="G51" s="52">
+      <c r="F51" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="G51" s="39">
         <v>7.0</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="J51" s="52" t="s">
+      <c r="I51" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="J51" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="39">
         <v>5.0</v>
       </c>
       <c r="M51" s="1">
         <v>4.0</v>
       </c>
-      <c r="N51" s="22" t="s">
+      <c r="N51" s="1" t="s">
         <v>202</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -3862,37 +3853,37 @@
       <c r="C52" s="39">
         <v>2.0</v>
       </c>
-      <c r="D52" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="E52" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="F52" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="47">
+      <c r="D52" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="31">
         <v>7.0</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="34" t="s">
         <v>42</v>
       </c>
       <c r="I52" s="39">
         <v>2.0</v>
       </c>
-      <c r="J52" s="32" t="s">
+      <c r="J52" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="L52" s="32" t="s">
+      <c r="L52" s="31" t="s">
         <v>205</v>
       </c>
       <c r="M52" s="1">
         <v>4.0</v>
       </c>
-      <c r="N52" s="22" t="s">
+      <c r="N52" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -3906,31 +3897,31 @@
       <c r="B53" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="D53" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="E53" s="52" t="s">
+      <c r="C53" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="50" t="s">
+      <c r="F53" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I53" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J53" s="32" t="s">
+      <c r="I53" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J53" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="34" t="s">
         <v>85</v>
       </c>
       <c r="L53" s="43">
@@ -3953,34 +3944,34 @@
       <c r="B54" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D54" s="49">
+      <c r="C54" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D54" s="30">
         <v>7.0</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F54" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G54" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H54" s="50" t="s">
+      <c r="F54" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G54" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="J54" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K54" s="52" t="s">
+      <c r="J54" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K54" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L54" s="32" t="s">
+      <c r="L54" s="31" t="s">
         <v>214</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -4000,34 +3991,34 @@
       <c r="B55" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D55" s="49">
+      <c r="C55" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D55" s="30">
         <v>7.0</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F55" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G55" s="50" t="s">
+      <c r="F55" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G55" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="50" t="s">
+      <c r="H55" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I55" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J55" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="K55" s="52" t="s">
+      <c r="I55" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="K55" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L55" s="32">
+      <c r="L55" s="31">
         <v>7.0</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -4047,31 +4038,31 @@
       <c r="B56" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G56" s="49">
+      <c r="F56" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G56" s="30">
         <v>2.0</v>
       </c>
       <c r="H56" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I56" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="J56" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K56" s="52" t="s">
+      <c r="I56" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K56" s="39" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="43" t="s">
@@ -4094,34 +4085,34 @@
       <c r="B57" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D57" s="49">
+      <c r="C57" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D57" s="30">
         <v>9.0</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G57" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="H57" s="50" t="s">
+      <c r="F57" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G57" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J57" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K57" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" s="32" t="s">
+      <c r="I57" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="31" t="s">
         <v>42</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -4141,31 +4132,31 @@
       <c r="B58" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D58" s="49">
+      <c r="C58" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D58" s="30">
         <v>9.0</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="G58" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H58" s="52" t="s">
+      <c r="F58" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="H58" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="J58" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K58" s="52" t="s">
+      <c r="I58" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="J58" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K58" s="39" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="43">
@@ -4185,431 +4176,431 @@
       <c r="A59" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C59" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="D59" s="55">
+      <c r="C59" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="50">
         <v>6.0</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="50">
         <v>6.0</v>
       </c>
-      <c r="F59" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="G59" s="56" t="s">
+      <c r="F59" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="G59" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H59" s="57" t="s">
+      <c r="H59" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="I59" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="J59" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="K59" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" s="57">
-        <v>4.0</v>
-      </c>
-      <c r="M59" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N59" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O59" s="1">
-        <v>3.0</v>
+      <c r="I59" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J59" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K59" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="N59" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O59" s="36">
+        <v>7.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C60" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="D60" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="F60" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="G60" s="31">
+      <c r="F60" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="G60" s="50">
         <v>7.0</v>
       </c>
-      <c r="H60" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I60" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J60" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K60" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="39" t="s">
+      <c r="H60" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K60" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M60" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N60" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O60" s="1">
-        <v>3.0</v>
+      <c r="M60" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="N60" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="G61" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="H61" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K61" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="F61" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="G61" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J61" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K61" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L61" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N61" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O61" s="1">
-        <v>3.0</v>
+      <c r="N61" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D62" s="31">
+      <c r="B62" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="D62" s="50">
         <v>9.0</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="G62" s="39" t="s">
+      <c r="F62" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="H62" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I62" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J62" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="K62" s="39" t="s">
+      <c r="G62" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="H62" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K62" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="L62" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N62" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O62" s="1">
-        <v>3.0</v>
+      <c r="L62" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="D63" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="E63" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="E63" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="F63" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I63" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J63" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="K63" s="52" t="s">
+      <c r="F63" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="K63" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="L63" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N63" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O63" s="1">
-        <v>3.0</v>
+      <c r="L63" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="M63" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="D64" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="E64" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="F64" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="G64" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="H64" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J64" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="K64" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="E64" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="F64" s="52">
+        <v>2.0</v>
+      </c>
+      <c r="G64" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="H64" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="K64" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="47">
         <v>4.0</v>
       </c>
-      <c r="M64" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N64" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>3.0</v>
+      <c r="M64" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="N64" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="D65" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="E65" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="G65" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H65" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J65" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K65" s="50" t="s">
+      <c r="F65" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="G65" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="H65" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K65" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="L65" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="M65" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N65" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O65" s="1">
-        <v>3.0</v>
+      <c r="L65" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M65" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="N65" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O65" s="36">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D66" s="49">
+        <v>250</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="D66" s="50">
         <v>7.0</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="G66" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J66" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K66" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L66" s="52">
+      <c r="F66" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="G66" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K66" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="47">
         <v>6.0</v>
       </c>
-      <c r="M66" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N66" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O66" s="1">
-        <v>3.0</v>
+      <c r="M66" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O66" s="36">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="C67" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D67" s="49">
+        <v>253</v>
+      </c>
+      <c r="C67" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="D67" s="50">
         <v>7.0</v>
       </c>
-      <c r="E67" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="F67" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="G67" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J67" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="K67" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L67" s="49">
+      <c r="E67" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="G67" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="50">
+        <v>1.0</v>
+      </c>
+      <c r="K67" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="50">
         <v>6.0</v>
       </c>
-      <c r="M67" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N67" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O67" s="1">
-        <v>3.0</v>
+      <c r="M67" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O67" s="36">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="C68" s="40">
         <v>2.0</v>
@@ -4641,69 +4632,69 @@
       <c r="L68" s="40">
         <v>2.0</v>
       </c>
-      <c r="M68" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="N68" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O68" s="22">
-        <v>3.0</v>
+      <c r="M68" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="N68" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
     </row>
     <row r="75">
-      <c r="A75" s="60"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="50"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="34"/>
     </row>
     <row r="76">
-      <c r="A76" s="60"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="50"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="34"/>
     </row>
     <row r="77">
-      <c r="A77" s="60"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="50"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="34"/>
     </row>
     <row r="78">
-      <c r="A78" s="60"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="57"/>
     </row>
     <row r="79">
-      <c r="A79" s="60"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="50"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="34"/>
     </row>
     <row r="80">
-      <c r="A80" s="63"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="44"/>
     </row>
     <row r="81">
-      <c r="A81" s="63"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="52"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B5"/>
